--- a/kalender.xlsx
+++ b/kalender.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20375"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Wahidi\kesantrian\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F028A84-6681-4661-9CFC-003C663A2E63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
   <si>
     <t>JULI</t>
   </si>
@@ -65,19 +71,88 @@
   </si>
   <si>
     <t>JUNI</t>
+  </si>
+  <si>
+    <t>Apel pagi</t>
+  </si>
+  <si>
+    <t>Muhasabah</t>
+  </si>
+  <si>
+    <t>HARIAN:</t>
+  </si>
+  <si>
+    <t>Santri masuk madrasah</t>
+  </si>
+  <si>
+    <t>Haflah</t>
+  </si>
+  <si>
+    <t>Nobar</t>
+  </si>
+  <si>
+    <t>Kegiatan di tanah wakaf</t>
+  </si>
+  <si>
+    <t>PEKANAN:</t>
+  </si>
+  <si>
+    <t>Amal Jama’i</t>
+  </si>
+  <si>
+    <t>Hiwar</t>
+  </si>
+  <si>
+    <t>Olahraga/PBB</t>
+  </si>
+  <si>
+    <t>Sabtu:</t>
+  </si>
+  <si>
+    <t>MADRASAH BAITUL IZZAH</t>
+  </si>
+  <si>
+    <t>RANCANGAN KALENDER KESANTRIAN</t>
+  </si>
+  <si>
+    <t>Tahun Pelajaran 2021/2022</t>
+  </si>
+  <si>
+    <t>SEMESTERAN:</t>
+  </si>
+  <si>
+    <t>Kolam renang</t>
+  </si>
+  <si>
+    <t>Pantai</t>
+  </si>
+  <si>
+    <t>Futsal</t>
+  </si>
+  <si>
+    <t>Rapat Kesantrian (per 2 pekan)</t>
+  </si>
+  <si>
+    <t>Rapat kesantrian</t>
+  </si>
+  <si>
+    <t>Tasmian (ba'da Maghrib)</t>
+  </si>
+  <si>
+    <t>Baca hadits (ba'da Ashar)</t>
+  </si>
+  <si>
+    <t>Amal Yaumi (06.30-07.00)</t>
+  </si>
+  <si>
+    <t>Ahad (pagi):</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,95 +161,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,55 +172,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,115 +208,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,72 +220,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -433,316 +246,111 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -866,7 +474,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -890,9 +498,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -916,7 +524,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -969,7 +577,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -994,1854 +602,3343 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A5:AE41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="Z41" sqref="Z41:AC41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="3.57142857142857" customWidth="true"/>
-    <col min="9" max="15" width="3.57142857142857" customWidth="true"/>
-    <col min="17" max="23" width="3.57142857142857" customWidth="true"/>
-    <col min="25" max="31" width="3.57142857142857" customWidth="true"/>
+    <col min="1" max="7" width="3.5703125" customWidth="1"/>
+    <col min="9" max="15" width="3.5703125" customWidth="1"/>
+    <col min="17" max="23" width="3.5703125" customWidth="1"/>
+    <col min="25" max="31" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31">
-      <c r="A5" s="1" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AG1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AG2" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AG3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AG4" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="Y5" s="1" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1" t="s">
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AG5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="R6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="U6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="V6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1" t="s">
+      <c r="Y6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB6" s="1" t="s">
+      <c r="Z6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AC6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AD6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AE6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="5:31">
-      <c r="E7">
+      <c r="AE6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG6" s="17"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <f>E7+1</f>
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <f>F7+1</f>
         <v>3</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="5">
         <f t="shared" ref="J7:O7" si="0">I7+1</f>
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T7">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="5">
         <f>T7+1</f>
         <v>2</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="5">
         <f>U7+1</f>
         <v>3</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="5">
         <f>V7+1</f>
         <v>4</v>
       </c>
-      <c r="AD7">
+      <c r="X7" s="1"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5">
         <v>1</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8">
+      <c r="AG7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="6">
         <f>G7+1</f>
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <f t="shared" ref="B8:G8" si="1">A8+1</f>
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I8">
-        <f>O7+1</f>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16">
         <v>8</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <f t="shared" ref="J8:O8" si="2">I8+1</f>
         <v>9</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="O8">
-        <f t="shared" si="2"/>
+      <c r="O8" s="23">
         <v>14</v>
       </c>
-      <c r="Q8">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="6">
         <f>W7+1</f>
         <v>5</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="5">
         <f t="shared" ref="R8:W8" si="3">Q8+1</f>
         <v>6</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="5">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="5">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="5">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="W8">
-        <f t="shared" si="3"/>
+      <c r="W8" s="23">
         <v>11</v>
       </c>
-      <c r="Y8">
+      <c r="X8" s="1"/>
+      <c r="Y8" s="6">
         <f>AE7+1</f>
         <v>3</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="5">
         <f t="shared" ref="Z8:AE8" si="4">Y8+1</f>
         <v>4</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="5">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="5">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="AE8">
-        <f t="shared" si="4"/>
+      <c r="AE8" s="23">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
-      <c r="A9">
+    <row r="9" spans="1:33">
+      <c r="A9" s="6">
         <f>G8+1</f>
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <f t="shared" ref="B9:G9" si="5">A9+1</f>
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
+      <c r="G9" s="23">
         <v>17</v>
       </c>
-      <c r="I9">
-        <f>O8+1</f>
+      <c r="H9" s="1"/>
+      <c r="I9" s="13">
         <v>15</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="5">
         <f t="shared" ref="J9:O9" si="6">I9+1</f>
         <v>16</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <f t="shared" si="6"/>
         <v>18</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="5">
         <f t="shared" si="6"/>
         <v>19</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="5">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="Q9">
-        <f>W8+1</f>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="16">
         <v>12</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="5">
         <f t="shared" ref="R9:W9" si="7">Q9+1</f>
         <v>13</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="5">
         <f t="shared" si="7"/>
         <v>14</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="5">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="5">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="5">
         <f t="shared" si="7"/>
         <v>17</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="5">
         <f t="shared" si="7"/>
         <v>18</v>
       </c>
-      <c r="Y9">
-        <f>AE8+1</f>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="16">
         <v>10</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="5">
         <f t="shared" ref="Z9:AE9" si="8">Y9+1</f>
         <v>11</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="5">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="5">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="5">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="5">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="5">
         <f t="shared" si="8"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:31">
-      <c r="A10">
+      <c r="AG9" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="12">
         <f>G9+1</f>
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <f t="shared" ref="B10:G10" si="9">A10+1</f>
         <v>19</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="I10">
-        <f>O9+1</f>
+      <c r="H10" s="1"/>
+      <c r="I10" s="15">
         <v>22</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="5">
         <f t="shared" ref="J10:O10" si="10">I10+1</f>
         <v>23</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="5">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="5">
         <f t="shared" si="10"/>
         <v>26</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <f t="shared" si="10"/>
         <v>27</v>
       </c>
-      <c r="O10">
-        <f t="shared" si="10"/>
+      <c r="O10" s="23">
         <v>28</v>
       </c>
-      <c r="Q10">
-        <f>W9+1</f>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="13">
         <v>19</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="5">
         <f t="shared" ref="R10:W10" si="11">Q10+1</f>
         <v>20</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="5">
         <f t="shared" si="11"/>
         <v>21</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="5">
         <f t="shared" si="11"/>
         <v>22</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="5">
         <f t="shared" si="11"/>
         <v>23</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="5">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="W10">
-        <f t="shared" si="11"/>
+      <c r="W10" s="23">
         <v>25</v>
       </c>
-      <c r="Y10">
-        <f>AE9+1</f>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="13">
         <v>17</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="5">
         <f t="shared" ref="Z10:AE10" si="12">Y10+1</f>
         <v>18</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="5">
         <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="5">
         <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="5">
         <f t="shared" si="12"/>
         <v>21</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="5">
         <f t="shared" si="12"/>
         <v>22</v>
       </c>
-      <c r="AE10">
-        <f t="shared" si="12"/>
+      <c r="AE10" s="23">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
-      <c r="A11">
+      <c r="AG10" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="14">
         <f>G10+1</f>
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <f t="shared" ref="B11:G11" si="13">A11+1</f>
         <v>26</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="13"/>
+      <c r="G11" s="23">
         <v>31</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="1"/>
+      <c r="I11" s="6">
         <f>O10+1</f>
         <v>29</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <f>I11+1</f>
         <v>30</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <f>J11+1</f>
         <v>31</v>
       </c>
-      <c r="Q11">
-        <f>W10+1</f>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="15">
         <v>26</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="5">
         <f>Q11+1</f>
         <v>27</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="5">
         <f>R11+1</f>
         <v>28</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="5">
         <f>S11+1</f>
         <v>29</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="5">
         <f>T11+1</f>
         <v>30</v>
       </c>
-      <c r="Y11">
-        <f>AE10+1</f>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="15">
         <v>24</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="5">
         <f t="shared" ref="Z11:AE11" si="14">Y11+1</f>
         <v>25</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="5">
         <f t="shared" si="14"/>
         <v>26</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="5">
         <f t="shared" si="14"/>
         <v>27</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="5">
         <f t="shared" si="14"/>
         <v>28</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="5">
         <f t="shared" si="14"/>
         <v>29</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="5">
         <f t="shared" si="14"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="25:25">
-      <c r="Y12">
+      <c r="AG11" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:31">
-      <c r="A20" s="1" t="s">
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16">
+        <v>8</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="23">
+        <v>11</v>
+      </c>
+      <c r="R13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AG13" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="23">
+        <v>17</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="23">
+        <v>14</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="16">
+        <v>12</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="23">
         <v>9</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="I20" s="1" t="s">
+      <c r="Z14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AG14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="13">
+        <v>18</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="13">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="13">
+        <v>19</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="16">
         <v>10</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="Q20" s="1" t="s">
+      <c r="Z15" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AG15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="15">
+        <v>25</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="15">
+        <v>22</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="23">
+        <v>25</v>
+      </c>
+      <c r="R16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="13">
+        <v>17</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AG16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="23">
+        <v>31</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="23">
+        <v>28</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="15">
+        <v>26</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="23">
+        <v>23</v>
+      </c>
+      <c r="Z17" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="15">
+        <v>24</v>
+      </c>
+      <c r="Z18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AG18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AG19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="Y20" s="1" t="s">
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-    </row>
-    <row r="21" spans="1:31">
-      <c r="A21" s="1" t="s">
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AG20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="J21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
+      <c r="O21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="R21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="U21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="V21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1" t="s">
+      <c r="W21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="1" t="s">
+      <c r="Z21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AC21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AD21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AE21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:31">
-      <c r="B22">
+      <c r="AE21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="5">
         <f>B22+1</f>
         <v>2</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="5">
         <f>C22+1</f>
         <v>3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="5">
         <f>D22+1</f>
         <v>4</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <f>E22+1</f>
         <v>5</v>
       </c>
-      <c r="G22">
-        <f>F22+1</f>
+      <c r="G22" s="23">
         <v>6</v>
       </c>
-      <c r="L22">
+      <c r="H22" s="9"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5">
         <v>1</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="5">
         <f>L22+1</f>
         <v>2</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="5">
         <f>M22+1</f>
         <v>3</v>
       </c>
-      <c r="O22">
-        <f>N22+1</f>
+      <c r="O22" s="23">
         <v>4</v>
       </c>
-      <c r="W22">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="23">
         <v>1</v>
       </c>
-      <c r="AA22">
+      <c r="X22" s="9"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5">
         <v>1</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="5">
         <f>AA22+1</f>
         <v>2</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="5">
         <f>AB22+1</f>
         <v>3</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="5">
         <f>AC22+1</f>
         <v>4</v>
       </c>
-      <c r="AE22">
+      <c r="AE22" s="5">
         <f>AD22+1</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
-      <c r="A23">
+    <row r="23" spans="1:33">
+      <c r="A23" s="6">
         <v>7</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <f t="shared" ref="B23:G23" si="15">A23+1</f>
         <v>8</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="5">
         <f t="shared" si="15"/>
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="5">
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="5">
         <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <f t="shared" si="15"/>
         <v>12</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="5">
         <f t="shared" si="15"/>
         <v>13</v>
       </c>
-      <c r="I23">
-        <v>5</v>
-      </c>
-      <c r="J23">
+      <c r="H23" s="9"/>
+      <c r="I23" s="6">
+        <v>5</v>
+      </c>
+      <c r="J23" s="5">
         <f t="shared" ref="J23:O23" si="16">I23+1</f>
         <v>6</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="5">
         <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="5">
         <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="Q23">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="6">
         <v>2</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="5">
         <f t="shared" ref="R23:W23" si="17">Q23+1</f>
         <v>3</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="5">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="5">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="5">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="5">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="5">
         <f t="shared" si="17"/>
         <v>8</v>
       </c>
-      <c r="Y23">
+      <c r="X23" s="9"/>
+      <c r="Y23" s="6">
         <v>6</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="5">
         <f t="shared" ref="Z23:AE23" si="18">Y23+1</f>
         <v>7</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="5">
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="5">
         <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="5">
         <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="5">
         <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="AE23">
-        <f t="shared" si="18"/>
+      <c r="AE23" s="23">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
-      <c r="A24">
+    <row r="24" spans="1:33">
+      <c r="A24" s="16">
         <v>14</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <f t="shared" ref="B24:G24" si="19">A24+1</f>
         <v>15</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="5">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="5">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="5">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <f t="shared" si="19"/>
         <v>19</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="19"/>
+      <c r="G24" s="23">
         <v>20</v>
       </c>
-      <c r="I24">
+      <c r="H24" s="9"/>
+      <c r="I24" s="16">
         <v>12</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="5">
         <f t="shared" ref="J24:O24" si="20">I24+1</f>
         <v>13</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <f t="shared" si="20"/>
         <v>14</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <f t="shared" si="20"/>
         <v>15</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="5">
         <f t="shared" si="20"/>
         <v>16</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="5">
         <f t="shared" si="20"/>
         <v>17</v>
       </c>
-      <c r="O24">
-        <f t="shared" si="20"/>
+      <c r="O24" s="23">
         <v>18</v>
       </c>
-      <c r="Q24">
+      <c r="P24" s="9"/>
+      <c r="Q24" s="16">
         <v>9</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="5">
         <f t="shared" ref="R24:W24" si="21">Q24+1</f>
         <v>10</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="5">
         <f t="shared" si="21"/>
         <v>11</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="5">
         <f t="shared" si="21"/>
         <v>12</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="5">
         <f t="shared" si="21"/>
         <v>13</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="5">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="W24">
-        <f t="shared" si="21"/>
+      <c r="W24" s="23">
         <v>15</v>
       </c>
-      <c r="Y24">
+      <c r="X24" s="9"/>
+      <c r="Y24" s="16">
         <v>13</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="5">
         <f t="shared" ref="Z24:AE24" si="22">Y24+1</f>
         <v>14</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="5">
         <f t="shared" si="22"/>
         <v>15</v>
       </c>
-      <c r="AB24">
+      <c r="AB24" s="5">
         <f t="shared" si="22"/>
         <v>16</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="5">
         <f t="shared" si="22"/>
         <v>17</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="5">
         <f t="shared" si="22"/>
         <v>18</v>
       </c>
-      <c r="AE24">
+      <c r="AE24" s="5">
         <f t="shared" si="22"/>
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
-      <c r="A25">
+    <row r="25" spans="1:33">
+      <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <f t="shared" ref="B25:G25" si="23">A25+1</f>
         <v>22</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="5">
         <f t="shared" si="23"/>
         <v>23</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="5">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <f t="shared" si="23"/>
         <v>25</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <f t="shared" si="23"/>
         <v>26</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="5">
         <f t="shared" si="23"/>
         <v>27</v>
       </c>
-      <c r="I25">
+      <c r="H25" s="9"/>
+      <c r="I25" s="13">
         <v>19</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="5">
         <f t="shared" ref="J25:O25" si="24">I25+1</f>
         <v>20</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <f t="shared" si="24"/>
         <v>21</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="5">
         <f t="shared" si="24"/>
         <v>22</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="5">
         <f t="shared" si="24"/>
         <v>23</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="5">
         <f t="shared" si="24"/>
         <v>24</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="5">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="Q25">
+      <c r="P25" s="9"/>
+      <c r="Q25" s="13">
         <v>16</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="5">
         <f t="shared" ref="R25:W25" si="25">Q25+1</f>
         <v>17</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="5">
         <f t="shared" si="25"/>
         <v>18</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="5">
         <f t="shared" si="25"/>
         <v>19</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="5">
         <f t="shared" si="25"/>
         <v>20</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="5">
         <f t="shared" si="25"/>
         <v>21</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="5">
         <f t="shared" si="25"/>
         <v>22</v>
       </c>
-      <c r="Y25">
+      <c r="X25" s="9"/>
+      <c r="Y25" s="13">
         <v>20</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="5">
         <f t="shared" ref="Z25:AE25" si="26">Y25+1</f>
         <v>21</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="5">
         <f t="shared" si="26"/>
         <v>22</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="5">
         <f t="shared" si="26"/>
         <v>23</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="5">
         <f t="shared" si="26"/>
         <v>24</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="5">
         <f t="shared" si="26"/>
         <v>25</v>
       </c>
-      <c r="AE25">
-        <f t="shared" si="26"/>
+      <c r="AE25" s="23">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
-      <c r="A26">
+    <row r="26" spans="1:33">
+      <c r="A26" s="15">
         <v>28</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <f>A26+1</f>
         <v>29</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="5">
         <f>B26+1</f>
         <v>30</v>
       </c>
-      <c r="I26">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="15">
         <v>26</v>
       </c>
-      <c r="J26">
-        <f t="shared" ref="J26:O26" si="27">I26+1</f>
+      <c r="J26" s="5">
+        <f t="shared" ref="J26:N26" si="27">I26+1</f>
         <v>27</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <f t="shared" si="27"/>
         <v>29</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="5">
         <f t="shared" si="27"/>
         <v>30</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="5">
         <f t="shared" si="27"/>
         <v>31</v>
       </c>
-      <c r="Q26">
+      <c r="O26" s="5"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="15">
         <v>23</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="5">
         <f t="shared" ref="R26:W26" si="28">Q26+1</f>
         <v>24</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="5">
         <f t="shared" si="28"/>
         <v>25</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="5">
         <f t="shared" si="28"/>
         <v>26</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="5">
         <f t="shared" si="28"/>
         <v>27</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="5">
         <f t="shared" si="28"/>
         <v>28</v>
       </c>
-      <c r="W26">
-        <f t="shared" si="28"/>
+      <c r="W26" s="23">
         <v>29</v>
       </c>
-      <c r="Y26">
+      <c r="X26" s="9"/>
+      <c r="Y26" s="15">
         <v>27</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="5">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="17:18">
-      <c r="Q27">
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="6">
         <v>30</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="5">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:31">
-      <c r="A35" s="1" t="s">
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="23">
+        <v>6</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="23">
+        <v>4</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="23">
+        <v>12</v>
+      </c>
+      <c r="Z28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" s="16">
+        <v>14</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="16">
+        <v>12</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="23">
+        <v>1</v>
+      </c>
+      <c r="R29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="16">
         <v>13</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="I35" s="1" t="s">
+      <c r="Z29" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" s="23">
+        <v>20</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="23">
+        <v>18</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="16">
+        <v>9</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="13">
+        <v>20</v>
+      </c>
+      <c r="Z30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" s="13">
+        <v>21</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="13">
+        <v>19</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="23">
+        <v>15</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="23">
+        <v>26</v>
+      </c>
+      <c r="Z31" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" s="15">
+        <v>28</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="15">
+        <v>26</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="13">
+        <v>16</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="15">
+        <v>27</v>
+      </c>
+      <c r="Z32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="15">
+        <v>23</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="23">
+        <v>29</v>
+      </c>
+      <c r="R34" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="Q35" s="1" t="s">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="Y35" s="1" t="s">
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-    </row>
-    <row r="36" spans="1:31">
-      <c r="A36" s="1" t="s">
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="G37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L36" s="1" t="s">
+      <c r="J37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q36" s="1" t="s">
+      <c r="O37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T36" s="1" t="s">
+      <c r="R37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U36" s="1" t="s">
+      <c r="U37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="1" t="s">
+      <c r="W37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="Z36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB36" s="1" t="s">
+      <c r="Z37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AC37" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AD37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AE36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="3:31">
-      <c r="C37">
+      <c r="AE37" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D37">
-        <f>C37+1</f>
+      <c r="D38" s="5">
+        <f>C38+1</f>
         <v>2</v>
       </c>
-      <c r="E37">
-        <f>D37+1</f>
+      <c r="E38" s="5">
+        <f>D38+1</f>
         <v>3</v>
       </c>
-      <c r="F37">
-        <f>E37+1</f>
+      <c r="F38" s="5">
+        <f>E38+1</f>
         <v>4</v>
       </c>
-      <c r="G37">
-        <f>F37+1</f>
-        <v>5</v>
-      </c>
-      <c r="N37">
+      <c r="G38" s="5">
+        <f>F38+1</f>
+        <v>5</v>
+      </c>
+      <c r="H38" s="9"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5">
         <v>1</v>
       </c>
-      <c r="O37">
+      <c r="O38" s="5">
         <v>2</v>
       </c>
-      <c r="Q37">
+      <c r="P38" s="9"/>
+      <c r="Q38" s="5">
         <v>1</v>
       </c>
-      <c r="R37">
-        <f t="shared" ref="R37:W37" si="29">Q37+1</f>
+      <c r="R38" s="5">
+        <f t="shared" ref="R38:W38" si="29">Q38+1</f>
         <v>2</v>
       </c>
-      <c r="S37">
+      <c r="S38" s="5">
         <f t="shared" si="29"/>
         <v>3</v>
       </c>
-      <c r="T37">
+      <c r="T38" s="5">
         <f t="shared" si="29"/>
         <v>4</v>
       </c>
-      <c r="U37">
+      <c r="U38" s="5">
         <f t="shared" si="29"/>
         <v>5</v>
       </c>
-      <c r="V37">
+      <c r="V38" s="5">
         <f t="shared" si="29"/>
         <v>6</v>
       </c>
-      <c r="W37">
-        <f t="shared" si="29"/>
+      <c r="W38" s="23">
         <v>7</v>
       </c>
-      <c r="AB37">
+      <c r="X38" s="9"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5">
         <v>1</v>
       </c>
-      <c r="AC37">
-        <f>AB37+1</f>
+      <c r="AC38" s="5">
+        <f>AB38+1</f>
         <v>2</v>
       </c>
-      <c r="AD37">
-        <f>AC37+1</f>
+      <c r="AD38" s="5">
+        <f>AC38+1</f>
         <v>3</v>
       </c>
-      <c r="AE37">
-        <f>AD37+1</f>
+      <c r="AE38" s="23">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
-      <c r="A38">
+    <row r="39" spans="1:37">
+      <c r="A39" s="5">
         <v>6</v>
       </c>
-      <c r="B38">
-        <f t="shared" ref="B38:G38" si="30">A38+1</f>
+      <c r="B39" s="5">
+        <f t="shared" ref="B39:G39" si="30">A39+1</f>
         <v>7</v>
       </c>
-      <c r="C38">
+      <c r="C39" s="5">
         <f t="shared" si="30"/>
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="D39" s="5">
         <f t="shared" si="30"/>
         <v>9</v>
       </c>
-      <c r="E38">
+      <c r="E39" s="5">
         <f t="shared" si="30"/>
         <v>10</v>
       </c>
-      <c r="F38">
+      <c r="F39" s="5">
         <f t="shared" si="30"/>
         <v>11</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="30"/>
+      <c r="G39" s="23">
         <v>12</v>
       </c>
-      <c r="I38">
+      <c r="H39" s="9"/>
+      <c r="I39" s="5">
         <v>3</v>
       </c>
-      <c r="J38">
-        <f t="shared" ref="J38:O38" si="31">I38+1</f>
+      <c r="J39" s="5">
+        <f t="shared" ref="J39:O39" si="31">I39+1</f>
         <v>4</v>
       </c>
-      <c r="K38">
+      <c r="K39" s="5">
         <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="L38">
+      <c r="L39" s="5">
         <f t="shared" si="31"/>
         <v>6</v>
       </c>
-      <c r="M38">
+      <c r="M39" s="5">
         <f t="shared" si="31"/>
         <v>7</v>
       </c>
-      <c r="N38">
+      <c r="N39" s="5">
         <f t="shared" si="31"/>
         <v>8</v>
       </c>
-      <c r="O38">
-        <f t="shared" si="31"/>
+      <c r="O39" s="23">
         <v>9</v>
       </c>
-      <c r="Q38">
+      <c r="P39" s="9"/>
+      <c r="Q39" s="16">
         <v>8</v>
       </c>
-      <c r="R38">
-        <f t="shared" ref="R38:W38" si="32">Q38+1</f>
+      <c r="R39" s="5">
+        <f t="shared" ref="R39:W39" si="32">Q39+1</f>
         <v>9</v>
       </c>
-      <c r="S38">
+      <c r="S39" s="5">
         <f t="shared" si="32"/>
         <v>10</v>
       </c>
-      <c r="T38">
+      <c r="T39" s="5">
         <f t="shared" si="32"/>
         <v>11</v>
       </c>
-      <c r="U38">
+      <c r="U39" s="5">
         <f t="shared" si="32"/>
         <v>12</v>
       </c>
-      <c r="V38">
+      <c r="V39" s="5">
         <f t="shared" si="32"/>
         <v>13</v>
       </c>
-      <c r="W38">
+      <c r="W39" s="5">
         <f t="shared" si="32"/>
         <v>14</v>
       </c>
-      <c r="Y38">
-        <v>5</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" ref="Z38:AE38" si="33">Y38+1</f>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="5">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="5">
+        <f t="shared" ref="Z39:AE39" si="33">Y39+1</f>
         <v>6</v>
       </c>
-      <c r="AA38">
+      <c r="AA39" s="5">
         <f t="shared" si="33"/>
         <v>7</v>
       </c>
-      <c r="AB38">
+      <c r="AB39" s="5">
         <f t="shared" si="33"/>
         <v>8</v>
       </c>
-      <c r="AC38">
+      <c r="AC39" s="5">
         <f t="shared" si="33"/>
         <v>9</v>
       </c>
-      <c r="AD38">
+      <c r="AD39" s="5">
         <f t="shared" si="33"/>
         <v>10</v>
       </c>
-      <c r="AE38">
+      <c r="AE39" s="5">
         <f t="shared" si="33"/>
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:31">
-      <c r="A39">
+    <row r="40" spans="1:37">
+      <c r="A40" s="16">
         <v>13</v>
       </c>
-      <c r="B39">
-        <f t="shared" ref="B39:G39" si="34">A39+1</f>
+      <c r="B40" s="5">
+        <f t="shared" ref="B40:G40" si="34">A40+1</f>
         <v>14</v>
       </c>
-      <c r="C39">
+      <c r="C40" s="5">
         <f t="shared" si="34"/>
         <v>15</v>
       </c>
-      <c r="D39">
+      <c r="D40" s="5">
         <f t="shared" si="34"/>
         <v>16</v>
       </c>
-      <c r="E39">
+      <c r="E40" s="5">
         <f t="shared" si="34"/>
         <v>17</v>
       </c>
-      <c r="F39">
+      <c r="F40" s="5">
         <f t="shared" si="34"/>
         <v>18</v>
       </c>
-      <c r="G39">
+      <c r="G40" s="5">
         <f t="shared" si="34"/>
         <v>19</v>
       </c>
-      <c r="I39">
+      <c r="H40" s="9"/>
+      <c r="I40" s="16">
         <v>10</v>
       </c>
-      <c r="J39">
-        <f t="shared" ref="J39:O39" si="35">I39+1</f>
+      <c r="J40" s="5">
+        <f t="shared" ref="J40:O40" si="35">I40+1</f>
         <v>11</v>
       </c>
-      <c r="K39">
+      <c r="K40" s="5">
         <f t="shared" si="35"/>
         <v>12</v>
       </c>
-      <c r="L39">
+      <c r="L40" s="5">
         <f t="shared" si="35"/>
         <v>13</v>
       </c>
-      <c r="M39">
+      <c r="M40" s="5">
         <f t="shared" si="35"/>
         <v>14</v>
       </c>
-      <c r="N39">
+      <c r="N40" s="5">
         <f t="shared" si="35"/>
         <v>15</v>
       </c>
-      <c r="O39">
+      <c r="O40" s="5">
         <f t="shared" si="35"/>
         <v>16</v>
       </c>
-      <c r="Q39">
+      <c r="P40" s="9"/>
+      <c r="Q40" s="13">
         <v>15</v>
       </c>
-      <c r="R39">
-        <f t="shared" ref="R39:W39" si="36">Q39+1</f>
+      <c r="R40" s="5">
+        <f t="shared" ref="R40:W40" si="36">Q40+1</f>
         <v>16</v>
       </c>
-      <c r="S39">
+      <c r="S40" s="5">
         <f t="shared" si="36"/>
         <v>17</v>
       </c>
-      <c r="T39">
+      <c r="T40" s="5">
         <f t="shared" si="36"/>
         <v>18</v>
       </c>
-      <c r="U39">
+      <c r="U40" s="5">
         <f t="shared" si="36"/>
         <v>19</v>
       </c>
-      <c r="V39">
+      <c r="V40" s="5">
         <f t="shared" si="36"/>
         <v>20</v>
       </c>
-      <c r="W39">
-        <f t="shared" si="36"/>
+      <c r="W40" s="23">
         <v>21</v>
       </c>
-      <c r="Y39">
+      <c r="X40" s="9"/>
+      <c r="Y40" s="16">
         <v>12</v>
       </c>
-      <c r="Z39">
-        <f t="shared" ref="Z39:AE39" si="37">Y39+1</f>
+      <c r="Z40" s="5">
+        <f t="shared" ref="Z40:AE40" si="37">Y40+1</f>
         <v>13</v>
       </c>
-      <c r="AA39">
+      <c r="AA40" s="5">
         <f t="shared" si="37"/>
         <v>14</v>
       </c>
-      <c r="AB39">
+      <c r="AB40" s="5">
         <f t="shared" si="37"/>
         <v>15</v>
       </c>
-      <c r="AC39">
+      <c r="AC40" s="5">
         <f t="shared" si="37"/>
         <v>16</v>
       </c>
-      <c r="AD39">
+      <c r="AD40" s="5">
         <f t="shared" si="37"/>
         <v>17</v>
       </c>
-      <c r="AE39">
-        <f t="shared" si="37"/>
+      <c r="AE40" s="23">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
-      <c r="A40">
+    <row r="41" spans="1:37">
+      <c r="A41" s="13">
         <v>20</v>
       </c>
-      <c r="B40">
-        <f t="shared" ref="B40:G40" si="38">A40+1</f>
+      <c r="B41" s="5">
+        <f t="shared" ref="B41:G41" si="38">A41+1</f>
         <v>21</v>
       </c>
-      <c r="C40">
+      <c r="C41" s="5">
         <f t="shared" si="38"/>
         <v>22</v>
       </c>
-      <c r="D40">
+      <c r="D41" s="5">
         <f t="shared" si="38"/>
         <v>23</v>
       </c>
-      <c r="E40">
+      <c r="E41" s="5">
         <f t="shared" si="38"/>
         <v>24</v>
       </c>
-      <c r="F40">
+      <c r="F41" s="5">
         <f t="shared" si="38"/>
         <v>25</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="38"/>
+      <c r="G41" s="23">
         <v>26</v>
       </c>
-      <c r="I40">
+      <c r="H41" s="9"/>
+      <c r="I41" s="13">
         <v>17</v>
       </c>
-      <c r="J40">
-        <f t="shared" ref="J40:O40" si="39">I40+1</f>
+      <c r="J41" s="5">
+        <f t="shared" ref="J41:O41" si="39">I41+1</f>
         <v>18</v>
       </c>
-      <c r="K40">
+      <c r="K41" s="5">
         <f t="shared" si="39"/>
         <v>19</v>
       </c>
-      <c r="L40">
+      <c r="L41" s="5">
         <f t="shared" si="39"/>
         <v>20</v>
       </c>
-      <c r="M40">
+      <c r="M41" s="5">
         <f t="shared" si="39"/>
         <v>21</v>
       </c>
-      <c r="N40">
+      <c r="N41" s="5">
         <f t="shared" si="39"/>
         <v>22</v>
       </c>
-      <c r="O40">
-        <f t="shared" si="39"/>
+      <c r="O41" s="23">
         <v>23</v>
       </c>
-      <c r="Q40">
+      <c r="P41" s="9"/>
+      <c r="Q41" s="15">
         <v>22</v>
       </c>
-      <c r="R40">
-        <f t="shared" ref="R40:W40" si="40">Q40+1</f>
+      <c r="R41" s="5">
+        <f t="shared" ref="R41:W41" si="40">Q41+1</f>
         <v>23</v>
       </c>
-      <c r="S40">
+      <c r="S41" s="5">
         <f t="shared" si="40"/>
         <v>24</v>
       </c>
-      <c r="T40">
+      <c r="T41" s="5">
         <f t="shared" si="40"/>
         <v>25</v>
       </c>
-      <c r="U40">
+      <c r="U41" s="5">
         <f t="shared" si="40"/>
         <v>26</v>
       </c>
-      <c r="V40">
+      <c r="V41" s="5">
         <f t="shared" si="40"/>
         <v>27</v>
       </c>
-      <c r="W40">
+      <c r="W41" s="5">
         <f t="shared" si="40"/>
         <v>28</v>
       </c>
-      <c r="Y40">
+      <c r="X41" s="9"/>
+      <c r="Y41" s="13">
         <v>19</v>
       </c>
-      <c r="Z40">
-        <f t="shared" ref="Z40:AE40" si="41">Y40+1</f>
+      <c r="Z41" s="5">
+        <f t="shared" ref="Z41:AE41" si="41">Y41+1</f>
         <v>20</v>
       </c>
-      <c r="AA40">
+      <c r="AA41" s="5">
         <f t="shared" si="41"/>
         <v>21</v>
       </c>
-      <c r="AB40">
+      <c r="AB41" s="5">
         <f t="shared" si="41"/>
         <v>22</v>
       </c>
-      <c r="AC40">
+      <c r="AC41" s="5">
         <f t="shared" si="41"/>
         <v>23</v>
       </c>
-      <c r="AD40">
+      <c r="AD41" s="5">
         <f t="shared" si="41"/>
         <v>24</v>
       </c>
-      <c r="AE40">
+      <c r="AE41" s="5">
         <f t="shared" si="41"/>
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
-      <c r="A41">
+    <row r="42" spans="1:37">
+      <c r="A42" s="15">
         <v>27</v>
       </c>
-      <c r="B41">
-        <f t="shared" ref="B41:G41" si="42">A41+1</f>
+      <c r="B42" s="5">
+        <f t="shared" ref="B42:E42" si="42">A42+1</f>
         <v>28</v>
       </c>
-      <c r="C41">
+      <c r="C42" s="5">
         <f t="shared" si="42"/>
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="D42" s="5">
         <f t="shared" si="42"/>
         <v>30</v>
       </c>
-      <c r="E41">
+      <c r="E42" s="5">
         <f t="shared" si="42"/>
         <v>31</v>
       </c>
-      <c r="I41">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="15">
         <v>24</v>
       </c>
-      <c r="J41">
-        <f t="shared" ref="J41:O41" si="43">I41+1</f>
+      <c r="J42" s="5">
+        <f t="shared" ref="J42:O42" si="43">I42+1</f>
         <v>25</v>
       </c>
-      <c r="K41">
+      <c r="K42" s="5">
         <f t="shared" si="43"/>
         <v>26</v>
       </c>
-      <c r="L41">
+      <c r="L42" s="5">
         <f t="shared" si="43"/>
         <v>27</v>
       </c>
-      <c r="M41">
+      <c r="M42" s="5">
         <f t="shared" si="43"/>
         <v>28</v>
       </c>
-      <c r="N41">
+      <c r="N42" s="5">
         <f t="shared" si="43"/>
         <v>29</v>
       </c>
-      <c r="O41">
+      <c r="O42" s="5">
         <f t="shared" si="43"/>
         <v>30</v>
       </c>
-      <c r="Q41">
+      <c r="P42" s="9"/>
+      <c r="Q42" s="5">
         <v>29</v>
       </c>
-      <c r="R41">
+      <c r="R42" s="5">
         <v>30</v>
       </c>
-      <c r="S41">
+      <c r="S42" s="5">
         <v>31</v>
       </c>
-      <c r="Y41">
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="15">
         <v>26</v>
       </c>
-      <c r="Z41">
-        <f>Y41+1</f>
+      <c r="Z42" s="5">
+        <f>Y42+1</f>
         <v>27</v>
       </c>
-      <c r="AA41">
-        <f>Z41+1</f>
+      <c r="AA42" s="5">
+        <f>Z42+1</f>
         <v>28</v>
       </c>
-      <c r="AB41">
-        <f>AA41+1</f>
+      <c r="AB42" s="5">
+        <f>AA42+1</f>
         <v>29</v>
       </c>
-      <c r="AC41">
-        <f>AB41+1</f>
+      <c r="AC42" s="5">
+        <f>AB42+1</f>
         <v>30</v>
       </c>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+      <c r="AA43" s="9"/>
+      <c r="AB43" s="9"/>
+      <c r="AC43" s="9"/>
+      <c r="AD43" s="9"/>
+      <c r="AE43" s="9"/>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" s="23">
+        <v>12</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="23">
+        <v>9</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="23">
+        <v>7</v>
+      </c>
+      <c r="R44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="23">
+        <v>4</v>
+      </c>
+      <c r="Z44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" s="16">
+        <v>13</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="16">
+        <v>10</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="16">
+        <v>8</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="16">
+        <v>12</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+      <c r="AD45" s="9"/>
+      <c r="AE45" s="9"/>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" s="13">
+        <v>20</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="13">
+        <v>17</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="13">
+        <v>15</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="23">
+        <v>18</v>
+      </c>
+      <c r="Z46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
+      <c r="AD46" s="9"/>
+      <c r="AE46" s="9"/>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" s="23">
+        <v>26</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="23">
+        <v>23</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="23">
+        <v>21</v>
+      </c>
+      <c r="R47" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="13">
+        <v>19</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
+      <c r="AD47" s="9"/>
+      <c r="AE47" s="9"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" s="15">
+        <v>27</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="15">
+        <v>24</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="15">
+        <v>22</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="15">
+        <v>26</v>
+      </c>
+      <c r="Z48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
+      <c r="AG49" s="22"/>
+      <c r="AH49" s="22"/>
+      <c r="AI49" s="22"/>
+      <c r="AJ49" s="22"/>
+      <c r="AK49" s="22"/>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
+      <c r="AG50" s="22"/>
+      <c r="AH50" s="22"/>
+      <c r="AI50" s="22"/>
+      <c r="AJ50" s="22"/>
+      <c r="AK50" s="22"/>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="9"/>
+      <c r="AC51" s="9"/>
+      <c r="AD51" s="9"/>
+      <c r="AE51" s="9"/>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="9"/>
+      <c r="AB52" s="9"/>
+      <c r="AC52" s="9"/>
+      <c r="AD52" s="9"/>
+      <c r="AE52" s="9"/>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="9"/>
+      <c r="AB54" s="9"/>
+      <c r="AC54" s="9"/>
+      <c r="AD54" s="9"/>
+      <c r="AE54" s="9"/>
+    </row>
+    <row r="55" spans="1:37">
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9"/>
+      <c r="AA55" s="9"/>
+      <c r="AB55" s="9"/>
+      <c r="AC55" s="9"/>
+      <c r="AD55" s="9"/>
+      <c r="AE55" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="A2:AE2"/>
+    <mergeCell ref="A3:AE3"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="Q36:W36"/>
+    <mergeCell ref="Y36:AE36"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="Q5:W5"/>
@@ -2850,12 +3947,8 @@
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="Q20:W20"/>
     <mergeCell ref="Y20:AE20"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="I35:O35"/>
-    <mergeCell ref="Q35:W35"/>
-    <mergeCell ref="Y35:AE35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>